--- a/2. Báo cáo - bàn giao/1.BaoCao/Thông tin lưu trữ/SanXuat/Danh Sách IMEI nhập kho/21.Lô 3-2024/77TB_ACT-01_230725.xlsx
+++ b/2. Báo cáo - bàn giao/1.BaoCao/Thông tin lưu trữ/SanXuat/Danh Sách IMEI nhập kho/21.Lô 3-2024/77TB_ACT-01_230725.xlsx
@@ -1,19 +1,19 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28623"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28730"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\VNET\VNET\2. Báo cáo - bàn giao\1.BaoCao\Thông tin lưu trữ\SanXuat\Danh Sách IMEI nhập kho\21.Lô 3-2024\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7467B453-D975-49E3-B02D-4A2D4003F59C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{80464F7F-485B-4C1A-A0D6-8B300CEAC7CC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="28110" windowHeight="16440" xr2:uid="{7848C333-D001-4F0D-A1E5-4A06A655BC1F}"/>
   </bookViews>
   <sheets>
-    <sheet name="65" sheetId="1" r:id="rId1"/>
+    <sheet name="0" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -398,8 +398,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7315A77B-962F-4212-8932-8C9555C1CCCD}">
   <dimension ref="A1:A200"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A52" workbookViewId="0">
-      <selection sqref="A1:A77"/>
+    <sheetView tabSelected="1" topLeftCell="A55" workbookViewId="0">
+      <selection activeCell="C82" sqref="C82"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
